--- a/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/8.xlsx
+++ b/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/8.xlsx
@@ -921,10 +921,10 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>107</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>259.22</v>
       </c>
     </row>
